--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -859,7 +859,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3071,7 +3071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>244</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>327</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>337</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>366</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>371</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>384</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>389</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>394</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>399</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>404</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>409</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>414</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>426</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>433</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>555</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>591</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>620</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>632</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>635</v>
       </c>
@@ -17874,12 +17874,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO133">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
